--- a/Examples/example1/deliverables/GENEX_CR1/assets/GENEX_CR1_cnt.xlsx
+++ b/Examples/example1/deliverables/GENEX_CR1/assets/GENEX_CR1_cnt.xlsx
@@ -427,16 +427,16 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>123022</v>
+        <v>128026</v>
       </c>
       <c r="C2">
-        <v>114074</v>
+        <v>100242</v>
       </c>
       <c r="D2">
-        <v>98280</v>
+        <v>99719</v>
       </c>
       <c r="E2">
-        <v>86.15</v>
+        <v>99.48</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>10</v>
       </c>
       <c r="I2">
-        <v>78969</v>
+        <v>98948</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -456,16 +456,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>111830</v>
+        <v>563988</v>
       </c>
       <c r="C3">
-        <v>102246</v>
+        <v>392772</v>
       </c>
       <c r="D3">
-        <v>92387</v>
+        <v>386584</v>
       </c>
       <c r="E3">
-        <v>90.36</v>
+        <v>98.42</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -477,7 +477,7 @@
         <v>10</v>
       </c>
       <c r="I3">
-        <v>78794</v>
+        <v>382078</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -485,16 +485,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>107350</v>
+        <v>566462</v>
       </c>
       <c r="C4">
-        <v>101860</v>
+        <v>426708</v>
       </c>
       <c r="D4">
-        <v>93757</v>
+        <v>417004</v>
       </c>
       <c r="E4">
-        <v>92.04</v>
+        <v>97.73</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
@@ -506,7 +506,7 @@
         <v>10</v>
       </c>
       <c r="I4">
-        <v>86841</v>
+        <v>410599</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -514,16 +514,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>164192</v>
+        <v>575314</v>
       </c>
       <c r="C5">
-        <v>144994</v>
+        <v>459304</v>
       </c>
       <c r="D5">
-        <v>85155</v>
+        <v>454023</v>
       </c>
       <c r="E5">
-        <v>58.73</v>
+        <v>98.85</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
@@ -535,7 +535,7 @@
         <v>10</v>
       </c>
       <c r="I5">
-        <v>328</v>
+        <v>450431</v>
       </c>
     </row>
   </sheetData>
